--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s4_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1860.747367456019</v>
+        <v>2089.625192807318</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.95601360621536</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.37926461999648</v>
+        <v>13.72575171901394</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.43061846978803</v>
+        <v>7.805446816166261</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1628.410000000013</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.33</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>39.06420691069127</v>
       </c>
     </row>
     <row r="4">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.46902814888774</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.78792875046599</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.70109323126045</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1132,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1146,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1160,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1174,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1182,13 +1127,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1199,10 +1144,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1213,10 +1158,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1227,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1241,10 +1186,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1252,13 +1197,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1266,13 +1211,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1280,13 +1225,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -1294,13 +1239,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -1308,15 +1253,29 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1419,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8">
@@ -1430,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9">
@@ -1441,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10">
@@ -1452,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11">
@@ -1463,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12">
@@ -1474,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>127.1400000000007</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -1485,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7700000000007</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
@@ -1496,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>141.3350000000007</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -1507,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>144.4750000000007</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
@@ -1518,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>132.7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -1529,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>183.1350000000015</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18">
@@ -1540,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>190.1700000000015</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19">
@@ -1551,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>198.3400000000015</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20">
@@ -1562,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>198.3350000000015</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21">
@@ -1573,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>188.6800000000015</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
@@ -1584,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>46.63000000000007</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
@@ -1595,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -1606,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>46.7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
@@ -1617,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
@@ -1628,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>47.43000000000007</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -1639,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>170.4799999999998</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1650,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>173.2749999999997</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1661,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>175.1699999999998</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1672,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>173.5649999999998</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1683,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>163.0549999999998</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1694,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>170.4799999999998</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33">
@@ -1705,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>173.2749999999997</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>175.1699999999998</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35">
@@ -1727,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>173.5649999999998</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36">
@@ -1738,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>163.0549999999998</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
@@ -1749,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>183.1350000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1760,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>190.1700000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1771,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>198.3400000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1782,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>198.3350000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1793,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>188.6800000000015</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>70.47999999999979</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
@@ -1851,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>73.27499999999975</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
@@ -1862,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>75.16999999999979</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
@@ -1873,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>73.5649999999998</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6">
@@ -1884,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>63.05499999999978</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
@@ -1895,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>83.13500000000147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1906,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>90.17000000000147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1917,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.34000000000145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1928,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>98.33500000000146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1939,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>88.68000000000146</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2151,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2162,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2173,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2184,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2195,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2206,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2217,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2228,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2239,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2250,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2335,10 +2294,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2349,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2360,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2371,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2382,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2390,10 +2349,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2404,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2415,7 +2374,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2426,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2437,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2445,10 +2404,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2456,10 +2415,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2467,10 +2426,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2478,10 +2437,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -2489,12 +2448,23 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
